--- a/data/SUIVI DP et Q et CIP des RO  MCT.xlsx
+++ b/data/SUIVI DP et Q et CIP des RO  MCT.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93F1C7-3E2E-4E99-ABC3-98D4FA9E0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MCT" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
     <sheet name="Suivi des actions process (2)" sheetId="9" r:id="rId3"/>
     <sheet name="tr" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -453,8 +447,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,45 +1158,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,12 +1209,42 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,31 +1517,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView topLeftCell="A103" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A116" sqref="A116:A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +1562,7 @@
       </c>
       <c r="I1" s="72"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>45442</v>
       </c>
@@ -1622,7 +1616,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>45443</v>
       </c>
@@ -1645,7 +1639,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>45444</v>
       </c>
@@ -1658,7 +1652,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>45445</v>
       </c>
@@ -1671,7 +1665,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>45446</v>
       </c>
@@ -1696,7 +1690,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>45447</v>
       </c>
@@ -1721,7 +1715,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>45448</v>
       </c>
@@ -1746,7 +1740,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>45449</v>
       </c>
@@ -1771,7 +1765,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>45450</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>45451</v>
       </c>
@@ -1811,7 +1805,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="8">
         <v>45452</v>
       </c>
@@ -1824,7 +1818,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>45453</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>45454</v>
       </c>
@@ -1882,7 +1876,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>45455</v>
       </c>
@@ -1911,7 +1905,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>45456</v>
       </c>
@@ -1940,7 +1934,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>45457</v>
       </c>
@@ -1969,7 +1963,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>45458</v>
       </c>
@@ -1982,7 +1976,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>45459</v>
       </c>
@@ -1995,7 +1989,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>45460</v>
       </c>
@@ -2008,7 +2002,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>45461</v>
       </c>
@@ -2021,7 +2015,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="6">
         <v>45462</v>
       </c>
@@ -2034,7 +2028,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>45463</v>
       </c>
@@ -2063,7 +2057,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>45464</v>
       </c>
@@ -2090,7 +2084,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>45465</v>
       </c>
@@ -2103,7 +2097,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="6">
         <v>45466</v>
       </c>
@@ -2116,7 +2110,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>45467</v>
       </c>
@@ -2145,7 +2139,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="6">
         <v>45468</v>
       </c>
@@ -2174,7 +2168,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>45469</v>
       </c>
@@ -2203,7 +2197,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>45470</v>
       </c>
@@ -2232,7 +2226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>45471</v>
       </c>
@@ -2259,7 +2253,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="6">
         <v>45472</v>
       </c>
@@ -2274,7 +2268,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="6">
         <v>45473</v>
       </c>
@@ -2287,7 +2281,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="6">
         <v>45474</v>
       </c>
@@ -2312,7 +2306,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="6">
         <v>45475</v>
       </c>
@@ -2341,7 +2335,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="6">
         <v>45476</v>
       </c>
@@ -2370,7 +2364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="6">
         <v>45477</v>
       </c>
@@ -2399,7 +2393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="6">
         <v>45478</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="6">
         <v>45479</v>
       </c>
@@ -2441,7 +2435,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="6">
         <v>45480</v>
       </c>
@@ -2454,7 +2448,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="6">
         <v>45481</v>
       </c>
@@ -2483,7 +2477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="6">
         <v>45482</v>
       </c>
@@ -2512,7 +2506,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="6">
         <v>45483</v>
       </c>
@@ -2541,7 +2535,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="6">
         <v>45484</v>
       </c>
@@ -2570,7 +2564,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="6">
         <v>45485</v>
       </c>
@@ -2599,7 +2593,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47" s="6">
         <v>45486</v>
       </c>
@@ -2612,7 +2606,7 @@
       <c r="H47" s="51"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="6">
         <v>45487</v>
       </c>
@@ -2628,7 +2622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="6">
         <v>45488</v>
       </c>
@@ -2657,7 +2651,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="6">
         <v>45489</v>
       </c>
@@ -2686,7 +2680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="6">
         <v>45490</v>
       </c>
@@ -2715,7 +2709,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="6">
         <v>45491</v>
       </c>
@@ -2744,7 +2738,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="6">
         <v>45492</v>
       </c>
@@ -2771,7 +2765,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="6">
         <v>45493</v>
       </c>
@@ -2784,7 +2778,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="6">
         <v>45494</v>
       </c>
@@ -2797,7 +2791,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="6">
         <v>45495</v>
       </c>
@@ -2826,7 +2820,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="6">
         <v>45496</v>
       </c>
@@ -2855,7 +2849,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="6">
         <v>45497</v>
       </c>
@@ -2884,7 +2878,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="6">
         <v>45498</v>
       </c>
@@ -2897,7 +2891,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="6">
         <v>45499</v>
       </c>
@@ -2910,7 +2904,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="6">
         <v>45500</v>
       </c>
@@ -2924,7 +2918,7 @@
       <c r="I61" s="7"/>
       <c r="L61" s="57"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="6">
         <v>45501</v>
       </c>
@@ -2937,7 +2931,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="6">
         <v>45502</v>
       </c>
@@ -2950,7 +2944,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="6">
         <v>45503</v>
       </c>
@@ -2963,7 +2957,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="6">
         <v>45504</v>
       </c>
@@ -2992,7 +2986,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="6">
         <v>45505</v>
       </c>
@@ -3021,7 +3015,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="6">
         <v>45506</v>
       </c>
@@ -3050,7 +3044,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="6">
         <v>45507</v>
       </c>
@@ -3063,7 +3057,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="6">
         <v>45508</v>
       </c>
@@ -3076,7 +3070,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="6">
         <v>45509</v>
       </c>
@@ -3105,7 +3099,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="6">
         <v>45510</v>
       </c>
@@ -3134,7 +3128,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="6">
         <v>45511</v>
       </c>
@@ -3163,7 +3157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="6">
         <v>45512</v>
       </c>
@@ -3192,7 +3186,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="6">
         <v>45513</v>
       </c>
@@ -3221,7 +3215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="6">
         <v>45514</v>
       </c>
@@ -3234,7 +3228,7 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="6">
         <v>45515</v>
       </c>
@@ -3247,7 +3241,7 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="6">
         <v>45516</v>
       </c>
@@ -3276,7 +3270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="6">
         <v>45517</v>
       </c>
@@ -3305,7 +3299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="6">
         <v>45518</v>
       </c>
@@ -3318,7 +3312,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="6">
         <v>45519</v>
       </c>
@@ -3347,7 +3341,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="6">
         <v>45520</v>
       </c>
@@ -3376,7 +3370,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="6">
         <v>45521</v>
       </c>
@@ -3389,7 +3383,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="6">
         <v>45522</v>
       </c>
@@ -3402,7 +3396,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="6">
         <v>45523</v>
       </c>
@@ -3431,7 +3425,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="6">
         <v>45524</v>
       </c>
@@ -3444,7 +3438,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="6">
         <v>45525</v>
       </c>
@@ -3457,7 +3451,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="6">
         <v>45526</v>
       </c>
@@ -3486,7 +3480,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="6">
         <v>45527</v>
       </c>
@@ -3515,7 +3509,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="6">
         <v>45528</v>
       </c>
@@ -3528,7 +3522,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="6">
         <v>45529</v>
       </c>
@@ -3541,7 +3535,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="6">
         <v>45530</v>
       </c>
@@ -3570,7 +3564,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="6">
         <v>45531</v>
       </c>
@@ -3599,7 +3593,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="6">
         <v>45532</v>
       </c>
@@ -3628,7 +3622,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="6">
         <v>45533</v>
       </c>
@@ -3657,7 +3651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="6">
         <v>45534</v>
       </c>
@@ -3686,7 +3680,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="6">
         <v>45535</v>
       </c>
@@ -3699,7 +3693,7 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" s="6">
         <v>45536</v>
       </c>
@@ -3712,7 +3706,7 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98" s="6">
         <v>45537</v>
       </c>
@@ -3741,7 +3735,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" s="6">
         <v>45538</v>
       </c>
@@ -3770,7 +3764,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" s="6">
         <v>45539</v>
       </c>
@@ -3799,7 +3793,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" s="6">
         <v>45540</v>
       </c>
@@ -3828,7 +3822,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" s="6">
         <v>45541</v>
       </c>
@@ -3857,7 +3851,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" s="6">
         <v>45542</v>
       </c>
@@ -3870,7 +3864,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104" s="6">
         <v>45543</v>
       </c>
@@ -3886,7 +3880,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" s="6">
         <v>45544</v>
       </c>
@@ -3915,7 +3909,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106" s="6">
         <v>45545</v>
       </c>
@@ -3944,7 +3938,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107" s="6">
         <v>45546</v>
       </c>
@@ -3973,7 +3967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" s="6">
         <v>45547</v>
       </c>
@@ -4002,7 +3996,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" s="6">
         <v>45548</v>
       </c>
@@ -4031,7 +4025,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" s="6">
         <v>45549</v>
       </c>
@@ -4044,7 +4038,7 @@
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111" s="6">
         <v>45550</v>
       </c>
@@ -4057,7 +4051,7 @@
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" s="6">
         <v>45551</v>
       </c>
@@ -4070,7 +4064,7 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="6">
         <v>45552</v>
       </c>
@@ -4083,7 +4077,7 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="6">
         <v>45553</v>
       </c>
@@ -4112,7 +4106,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="6">
         <v>45554</v>
       </c>
@@ -4125,7 +4119,7 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="6">
         <v>45555</v>
       </c>
@@ -4138,7 +4132,7 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="6">
         <v>45556</v>
       </c>
@@ -4151,7 +4145,7 @@
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="6">
         <v>45557</v>
       </c>
@@ -4164,7 +4158,7 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="6">
         <v>45558</v>
       </c>
@@ -4177,7 +4171,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="6">
         <v>45559</v>
       </c>
@@ -4190,7 +4184,7 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="6">
         <v>45560</v>
       </c>
@@ -4203,7 +4197,7 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="6">
         <v>45561</v>
       </c>
@@ -4216,7 +4210,7 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="6">
         <v>45562</v>
       </c>
@@ -4229,7 +4223,7 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="6">
         <v>45563</v>
       </c>
@@ -4242,7 +4236,7 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="6">
         <v>45564</v>
       </c>
@@ -4255,7 +4249,7 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="6">
         <v>45565</v>
       </c>
@@ -4280,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:GI14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
@@ -4288,24 +4282,24 @@
       <selection pane="topRight" activeCell="FU20" sqref="FU20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="17.6640625" customWidth="1"/>
-    <col min="95" max="95" width="20.88671875" customWidth="1"/>
-    <col min="99" max="99" width="15.109375" customWidth="1"/>
-    <col min="100" max="100" width="17.44140625" customWidth="1"/>
-    <col min="102" max="102" width="16.6640625" customWidth="1"/>
-    <col min="103" max="103" width="17.109375" customWidth="1"/>
-    <col min="108" max="108" width="15.44140625" customWidth="1"/>
-    <col min="142" max="142" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17.7109375" customWidth="1"/>
+    <col min="95" max="95" width="20.85546875" customWidth="1"/>
+    <col min="99" max="99" width="15.140625" customWidth="1"/>
+    <col min="100" max="100" width="17.42578125" customWidth="1"/>
+    <col min="102" max="102" width="16.7109375" customWidth="1"/>
+    <col min="103" max="103" width="17.140625" customWidth="1"/>
+    <col min="108" max="108" width="15.42578125" customWidth="1"/>
+    <col min="142" max="142" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:191" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:191" ht="23.25">
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4316,8 +4310,8 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:191" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:191" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:191" ht="39.75" customHeight="1" thickBot="1"/>
+    <row r="10" spans="1:191" ht="57" customHeight="1" thickBot="1">
       <c r="A10" s="49" t="s">
         <v>22</v>
       </c>
@@ -4886,8 +4880,8 @@
       <c r="GH10" s="7"/>
       <c r="GI10" s="7"/>
     </row>
-    <row r="11" spans="1:191" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="89" t="s">
+    <row r="11" spans="1:191" ht="57" customHeight="1">
+      <c r="A11" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="12">
@@ -4923,10 +4917,10 @@
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
-      <c r="AG11" s="92" t="s">
+      <c r="AG11" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="AH11" s="93"/>
+      <c r="AH11" s="81"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="14"/>
       <c r="AK11" s="14"/>
@@ -4948,11 +4942,11 @@
       <c r="BA11" s="13"/>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
-      <c r="BD11" s="92" t="s">
+      <c r="BD11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="BE11" s="94"/>
-      <c r="BF11" s="93"/>
+      <c r="BE11" s="82"/>
+      <c r="BF11" s="81"/>
       <c r="BG11" s="14"/>
       <c r="BH11" s="14"/>
       <c r="BI11" s="14"/>
@@ -4976,11 +4970,11 @@
       <c r="CA11" s="14"/>
       <c r="CB11" s="14"/>
       <c r="CC11" s="14"/>
-      <c r="CD11" s="95" t="s">
+      <c r="CD11" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="CE11" s="96"/>
-      <c r="CF11" s="97"/>
+      <c r="CE11" s="84"/>
+      <c r="CF11" s="85"/>
       <c r="CG11" s="14"/>
       <c r="CH11" s="14"/>
       <c r="CI11" s="14"/>
@@ -4997,11 +4991,11 @@
       <c r="CT11" s="14"/>
       <c r="CU11" s="14"/>
       <c r="CV11" s="14"/>
-      <c r="CW11" s="98" t="s">
+      <c r="CW11" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="CX11" s="99"/>
-      <c r="CY11" s="100"/>
+      <c r="CX11" s="87"/>
+      <c r="CY11" s="88"/>
       <c r="CZ11" s="14"/>
       <c r="DA11" s="14"/>
       <c r="DB11" s="46"/>
@@ -5024,11 +5018,11 @@
       <c r="DS11" s="7"/>
       <c r="DT11" s="7"/>
       <c r="DU11" s="7"/>
-      <c r="DV11" s="76" t="s">
+      <c r="DV11" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="DW11" s="103"/>
-      <c r="DX11" s="104"/>
+      <c r="DW11" s="74"/>
+      <c r="DX11" s="75"/>
       <c r="DY11" s="7"/>
       <c r="DZ11" s="7"/>
       <c r="EA11" s="7"/>
@@ -5042,11 +5036,11 @@
       <c r="EI11" s="7"/>
       <c r="EJ11" s="7"/>
       <c r="EK11" s="7"/>
-      <c r="EL11" s="76" t="s">
+      <c r="EL11" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="EM11" s="103"/>
-      <c r="EN11" s="104"/>
+      <c r="EM11" s="74"/>
+      <c r="EN11" s="75"/>
       <c r="EO11" s="7"/>
       <c r="EP11" s="7"/>
       <c r="EQ11" s="7"/>
@@ -5057,11 +5051,11 @@
       <c r="EV11" s="7"/>
       <c r="EW11" s="7"/>
       <c r="EX11" s="7"/>
-      <c r="EY11" s="76" t="s">
+      <c r="EY11" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="EZ11" s="103"/>
-      <c r="FA11" s="104"/>
+      <c r="EZ11" s="74"/>
+      <c r="FA11" s="75"/>
       <c r="FB11" s="7"/>
       <c r="FC11" s="7"/>
       <c r="FD11" s="7"/>
@@ -5078,10 +5072,10 @@
       <c r="FO11" s="7"/>
       <c r="FP11" s="7"/>
       <c r="FQ11" s="7"/>
-      <c r="FR11" s="76" t="s">
+      <c r="FR11" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="FS11" s="77"/>
+      <c r="FS11" s="76"/>
       <c r="FT11" s="7"/>
       <c r="FU11" s="7"/>
       <c r="FV11" s="7"/>
@@ -5099,8 +5093,8 @@
       <c r="GH11" s="7"/>
       <c r="GI11" s="7"/>
     </row>
-    <row r="12" spans="1:191" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
+    <row r="12" spans="1:191" ht="60.75" customHeight="1">
+      <c r="A12" s="78"/>
       <c r="B12" s="15">
         <v>2</v>
       </c>
@@ -5132,10 +5126,10 @@
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
-      <c r="AE12" s="101" t="s">
+      <c r="AE12" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AF12" s="102"/>
+      <c r="AF12" s="90"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
@@ -5170,12 +5164,12 @@
       <c r="BL12" s="16"/>
       <c r="BM12" s="16"/>
       <c r="BN12" s="16"/>
-      <c r="BO12" s="81" t="s">
+      <c r="BO12" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="BP12" s="82"/>
-      <c r="BQ12" s="82"/>
-      <c r="BR12" s="83"/>
+      <c r="BP12" s="92"/>
+      <c r="BQ12" s="92"/>
+      <c r="BR12" s="93"/>
       <c r="BS12" s="16"/>
       <c r="BT12" s="16"/>
       <c r="BU12" s="16"/>
@@ -5200,10 +5194,10 @@
       <c r="CN12" s="16"/>
       <c r="CO12" s="16"/>
       <c r="CP12" s="16"/>
-      <c r="CQ12" s="81" t="s">
+      <c r="CQ12" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="CR12" s="83"/>
+      <c r="CR12" s="93"/>
       <c r="CS12" s="16"/>
       <c r="CT12" s="16"/>
       <c r="CU12" s="16"/>
@@ -5214,11 +5208,11 @@
       <c r="CZ12" s="45"/>
       <c r="DA12" s="45"/>
       <c r="DB12" s="36"/>
-      <c r="DC12" s="73" t="s">
+      <c r="DC12" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="DD12" s="74"/>
-      <c r="DE12" s="75"/>
+      <c r="DD12" s="95"/>
+      <c r="DE12" s="96"/>
       <c r="DF12" s="7"/>
       <c r="DG12" s="7"/>
       <c r="DH12" s="7"/>
@@ -5250,10 +5244,10 @@
       <c r="EH12" s="7"/>
       <c r="EI12" s="7"/>
       <c r="EJ12" s="7"/>
-      <c r="EK12" s="76" t="s">
+      <c r="EK12" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="EL12" s="77"/>
+      <c r="EL12" s="76"/>
       <c r="EM12" s="7"/>
       <c r="EN12" s="7"/>
       <c r="EO12" s="7"/>
@@ -5269,11 +5263,11 @@
       <c r="EY12" s="7"/>
       <c r="EZ12" s="7"/>
       <c r="FA12" s="7"/>
-      <c r="FB12" s="76" t="s">
+      <c r="FB12" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="FC12" s="103"/>
-      <c r="FD12" s="104"/>
+      <c r="FC12" s="74"/>
+      <c r="FD12" s="75"/>
       <c r="FE12" s="7"/>
       <c r="FF12" s="7"/>
       <c r="FG12" s="7"/>
@@ -5306,8 +5300,8 @@
       <c r="GH12" s="7"/>
       <c r="GI12" s="7"/>
     </row>
-    <row r="13" spans="1:191" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
+    <row r="13" spans="1:191" ht="36.75" customHeight="1">
+      <c r="A13" s="78"/>
       <c r="B13" s="15">
         <v>3</v>
       </c>
@@ -5384,11 +5378,11 @@
       <c r="BU13" s="16"/>
       <c r="BV13" s="16"/>
       <c r="BW13" s="16"/>
-      <c r="BX13" s="78" t="s">
+      <c r="BX13" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="BY13" s="79"/>
-      <c r="BZ13" s="80"/>
+      <c r="BY13" s="98"/>
+      <c r="BZ13" s="99"/>
       <c r="CA13" s="16"/>
       <c r="CB13" s="16"/>
       <c r="CC13" s="16"/>
@@ -5413,11 +5407,11 @@
       <c r="CV13" s="16"/>
       <c r="CW13" s="16"/>
       <c r="CX13" s="45"/>
-      <c r="CY13" s="81" t="s">
+      <c r="CY13" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="CZ13" s="82"/>
-      <c r="DA13" s="83"/>
+      <c r="CZ13" s="92"/>
+      <c r="DA13" s="93"/>
       <c r="DB13" s="36"/>
       <c r="DC13" s="7"/>
       <c r="DD13" s="7"/>
@@ -5505,8 +5499,8 @@
       <c r="GH13" s="7"/>
       <c r="GI13" s="7"/>
     </row>
-    <row r="14" spans="1:191" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="91"/>
+    <row r="14" spans="1:191" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A14" s="79"/>
       <c r="B14" s="17">
         <v>4</v>
       </c>
@@ -5586,10 +5580,10 @@
       <c r="BX14" s="18"/>
       <c r="BY14" s="18"/>
       <c r="BZ14" s="18"/>
-      <c r="CA14" s="84" t="s">
+      <c r="CA14" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="CB14" s="85"/>
+      <c r="CB14" s="101"/>
       <c r="CC14" s="18"/>
       <c r="CD14" s="18"/>
       <c r="CE14" s="18"/>
@@ -5621,11 +5615,11 @@
       <c r="DE14" s="38"/>
       <c r="DF14" s="38"/>
       <c r="DG14" s="44"/>
-      <c r="DH14" s="86" t="s">
+      <c r="DH14" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="DI14" s="87"/>
-      <c r="DJ14" s="88"/>
+      <c r="DI14" s="103"/>
+      <c r="DJ14" s="104"/>
       <c r="DK14" s="7"/>
       <c r="DL14" s="7"/>
       <c r="DM14" s="7"/>
@@ -5655,11 +5649,11 @@
       <c r="EK14" s="7"/>
       <c r="EL14" s="7"/>
       <c r="EM14" s="7"/>
-      <c r="EN14" s="76" t="s">
+      <c r="EN14" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="EO14" s="103"/>
-      <c r="EP14" s="104"/>
+      <c r="EO14" s="74"/>
+      <c r="EP14" s="75"/>
       <c r="EQ14" s="7"/>
       <c r="ER14" s="7"/>
       <c r="ES14" s="7"/>
@@ -5708,12 +5702,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="EN14:EP14"/>
-    <mergeCell ref="DV11:DX11"/>
-    <mergeCell ref="EL11:EN11"/>
-    <mergeCell ref="FR11:FS11"/>
-    <mergeCell ref="EY11:FA11"/>
-    <mergeCell ref="FB12:FD12"/>
+    <mergeCell ref="DC12:DE12"/>
+    <mergeCell ref="EK12:EL12"/>
+    <mergeCell ref="BX13:BZ13"/>
+    <mergeCell ref="CY13:DA13"/>
+    <mergeCell ref="CA14:CB14"/>
+    <mergeCell ref="DH14:DJ14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="BD11:BF11"/>
@@ -5722,12 +5716,12 @@
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="BO12:BR12"/>
     <mergeCell ref="CQ12:CR12"/>
-    <mergeCell ref="DC12:DE12"/>
-    <mergeCell ref="EK12:EL12"/>
-    <mergeCell ref="BX13:BZ13"/>
-    <mergeCell ref="CY13:DA13"/>
-    <mergeCell ref="CA14:CB14"/>
-    <mergeCell ref="DH14:DJ14"/>
+    <mergeCell ref="EN14:EP14"/>
+    <mergeCell ref="DV11:DX11"/>
+    <mergeCell ref="EL11:EN11"/>
+    <mergeCell ref="FR11:FS11"/>
+    <mergeCell ref="EY11:FA11"/>
+    <mergeCell ref="FB12:FD12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5736,28 +5730,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="108" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="32" customWidth="1"/>
     <col min="3" max="3" width="55" style="33" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="32" customWidth="1"/>
     <col min="6" max="6" width="19" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="32" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
@@ -5789,7 +5783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="30">
         <v>45441</v>
       </c>
@@ -5817,7 +5811,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="30">
         <v>45437</v>
       </c>
@@ -5845,7 +5839,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="30">
         <v>45433</v>
       </c>
@@ -5873,7 +5867,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="30">
         <v>45435</v>
       </c>
@@ -5901,7 +5895,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="31">
         <v>45446</v>
       </c>
@@ -5929,7 +5923,7 @@
       <c r="I6" s="28"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="31">
         <v>45483</v>
       </c>
@@ -5957,7 +5951,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="34">
         <v>45489</v>
       </c>
@@ -5985,7 +5979,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="34">
         <v>45489</v>
       </c>
@@ -6013,7 +6007,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="34">
         <v>45489</v>
       </c>
@@ -6041,7 +6035,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="34">
         <v>45491</v>
       </c>
@@ -6069,7 +6063,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="34">
         <v>45491</v>
       </c>
@@ -6097,7 +6091,7 @@
       <c r="I12" s="28"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="58">
         <v>45502</v>
       </c>
@@ -6125,7 +6119,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="58">
         <v>45506</v>
       </c>
@@ -6153,7 +6147,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="59">
         <v>45509</v>
       </c>
@@ -6181,7 +6175,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="59">
         <v>45509</v>
       </c>
@@ -6209,7 +6203,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="59">
         <v>45510</v>
       </c>
@@ -6237,7 +6231,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="59">
         <v>45510</v>
       </c>
@@ -6265,7 +6259,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="59">
         <v>45510</v>
       </c>
@@ -6293,7 +6287,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="61">
         <v>45516</v>
       </c>
@@ -6321,7 +6315,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="61">
         <v>45516</v>
       </c>
@@ -6349,7 +6343,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="30">
         <v>45526</v>
       </c>
@@ -6377,7 +6371,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="30">
       <c r="A23" s="30">
         <v>45527</v>
       </c>
@@ -6405,7 +6399,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="45">
       <c r="A24" s="58">
         <v>45501</v>
       </c>
@@ -6433,7 +6427,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="30">
       <c r="A25" s="58">
         <v>45501</v>
       </c>
@@ -6461,7 +6455,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="30">
       <c r="A26" s="64">
         <v>45545</v>
       </c>
@@ -6489,7 +6483,7 @@
       <c r="I26" s="28"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="64">
         <v>45547</v>
       </c>
@@ -6517,7 +6511,7 @@
       <c r="I27" s="28"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="28"/>
       <c r="B28" s="25"/>
       <c r="C28" s="27"/>
@@ -6529,7 +6523,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="28"/>
       <c r="B29" s="25"/>
       <c r="C29" s="27"/>
@@ -6541,7 +6535,7 @@
       <c r="I29" s="28"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="28"/>
       <c r="B30" s="25"/>
       <c r="C30" s="27"/>
@@ -6553,7 +6547,7 @@
       <c r="I30" s="28"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="28"/>
       <c r="B31" s="25"/>
       <c r="C31" s="27"/>
@@ -6565,7 +6559,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="28"/>
       <c r="B32" s="25"/>
       <c r="C32" s="27"/>
@@ -6577,7 +6571,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="28"/>
       <c r="B33" s="25"/>
       <c r="C33" s="27"/>
@@ -6589,7 +6583,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="28"/>
       <c r="B34" s="25"/>
       <c r="C34" s="27"/>
@@ -6601,7 +6595,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="28"/>
       <c r="B35" s="25"/>
       <c r="C35" s="27"/>
@@ -6613,7 +6607,7 @@
       <c r="I35" s="28"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="28"/>
       <c r="B36" s="25"/>
       <c r="C36" s="27"/>
@@ -6625,7 +6619,7 @@
       <c r="I36" s="28"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="28"/>
       <c r="B37" s="25"/>
       <c r="C37" s="27"/>
@@ -6637,7 +6631,7 @@
       <c r="I37" s="28"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="28"/>
       <c r="B38" s="25"/>
       <c r="C38" s="27"/>
@@ -6649,7 +6643,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="28"/>
       <c r="B39" s="25"/>
       <c r="C39" s="27"/>
@@ -6661,7 +6655,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="28"/>
       <c r="B40" s="25"/>
       <c r="C40" s="27"/>
@@ -6673,7 +6667,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="28"/>
       <c r="B41" s="25"/>
       <c r="C41" s="27"/>
@@ -6685,7 +6679,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="28"/>
       <c r="B42" s="25"/>
       <c r="C42" s="27"/>
@@ -6697,7 +6691,7 @@
       <c r="I42" s="28"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="28"/>
       <c r="B43" s="25"/>
       <c r="C43" s="27"/>
@@ -6709,7 +6703,7 @@
       <c r="I43" s="28"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="28"/>
       <c r="B44" s="25"/>
       <c r="C44" s="27"/>
@@ -6721,7 +6715,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="28"/>
       <c r="B45" s="25"/>
       <c r="C45" s="27"/>
@@ -6733,7 +6727,7 @@
       <c r="I45" s="28"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="28"/>
       <c r="B46" s="25"/>
       <c r="C46" s="27"/>
@@ -6745,7 +6739,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="28"/>
       <c r="B47" s="25"/>
       <c r="C47" s="27"/>
@@ -6757,7 +6751,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="28"/>
       <c r="B48" s="25"/>
       <c r="C48" s="27"/>
@@ -6769,7 +6763,7 @@
       <c r="I48" s="28"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="28"/>
       <c r="B49" s="25"/>
       <c r="C49" s="27"/>
@@ -6781,7 +6775,7 @@
       <c r="I49" s="28"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="28"/>
       <c r="B50" s="25"/>
       <c r="C50" s="27"/>
@@ -6793,7 +6787,7 @@
       <c r="I50" s="28"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" s="28"/>
       <c r="B51" s="25"/>
       <c r="C51" s="27"/>
@@ -6805,7 +6799,7 @@
       <c r="I51" s="28"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" s="28"/>
       <c r="B52" s="25"/>
       <c r="C52" s="27"/>
@@ -6817,7 +6811,7 @@
       <c r="I52" s="28"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" s="28"/>
       <c r="B53" s="25"/>
       <c r="C53" s="27"/>
@@ -6829,7 +6823,7 @@
       <c r="I53" s="28"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" s="28"/>
       <c r="B54" s="25"/>
       <c r="C54" s="27"/>
@@ -6841,7 +6835,7 @@
       <c r="I54" s="28"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" s="28"/>
       <c r="B55" s="25"/>
       <c r="C55" s="27"/>
@@ -6853,7 +6847,7 @@
       <c r="I55" s="28"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" s="28"/>
       <c r="B56" s="25"/>
       <c r="C56" s="27"/>
@@ -6865,7 +6859,7 @@
       <c r="I56" s="28"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="28"/>
       <c r="B57" s="25"/>
       <c r="C57" s="27"/>
@@ -6877,7 +6871,7 @@
       <c r="I57" s="28"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="28"/>
       <c r="B58" s="25"/>
       <c r="C58" s="27"/>
@@ -6889,7 +6883,7 @@
       <c r="I58" s="28"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" s="28"/>
       <c r="B59" s="25"/>
       <c r="C59" s="27"/>
@@ -6901,7 +6895,7 @@
       <c r="I59" s="28"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" s="28"/>
       <c r="B60" s="25"/>
       <c r="C60" s="27"/>
@@ -6913,7 +6907,7 @@
       <c r="I60" s="28"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" s="28"/>
       <c r="B61" s="25"/>
       <c r="C61" s="27"/>
@@ -6925,7 +6919,7 @@
       <c r="I61" s="28"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" s="28"/>
       <c r="B62" s="25"/>
       <c r="C62" s="27"/>
@@ -6937,7 +6931,7 @@
       <c r="I62" s="28"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" s="28"/>
       <c r="B63" s="25"/>
       <c r="C63" s="27"/>
@@ -6949,7 +6943,7 @@
       <c r="I63" s="28"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" s="28"/>
       <c r="B64" s="25"/>
       <c r="C64" s="27"/>
@@ -6961,7 +6955,7 @@
       <c r="I64" s="28"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" s="28"/>
       <c r="B65" s="25"/>
       <c r="C65" s="27"/>
@@ -6973,7 +6967,7 @@
       <c r="I65" s="28"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" s="28"/>
       <c r="B66" s="25"/>
       <c r="C66" s="27"/>
@@ -6985,7 +6979,7 @@
       <c r="I66" s="28"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="28"/>
       <c r="B67" s="25"/>
       <c r="C67" s="27"/>
@@ -6997,7 +6991,7 @@
       <c r="I67" s="28"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="28"/>
       <c r="B68" s="25"/>
       <c r="C68" s="27"/>
@@ -7009,7 +7003,7 @@
       <c r="I68" s="28"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" s="28"/>
       <c r="B69" s="25"/>
       <c r="C69" s="27"/>
@@ -7021,7 +7015,7 @@
       <c r="I69" s="28"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" s="28"/>
       <c r="B70" s="25"/>
       <c r="C70" s="27"/>
@@ -7033,7 +7027,7 @@
       <c r="I70" s="28"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" s="28"/>
       <c r="B71" s="25"/>
       <c r="C71" s="27"/>
@@ -7045,7 +7039,7 @@
       <c r="I71" s="28"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" s="28"/>
       <c r="B72" s="25"/>
       <c r="C72" s="27"/>
@@ -7057,7 +7051,7 @@
       <c r="I72" s="28"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73" s="28"/>
       <c r="B73" s="25"/>
       <c r="C73" s="27"/>
@@ -7069,7 +7063,7 @@
       <c r="I73" s="28"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74" s="28"/>
       <c r="B74" s="25"/>
       <c r="C74" s="27"/>
@@ -7081,7 +7075,7 @@
       <c r="I74" s="28"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75" s="28"/>
       <c r="B75" s="25"/>
       <c r="C75" s="27"/>
@@ -7093,7 +7087,7 @@
       <c r="I75" s="28"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76" s="28"/>
       <c r="B76" s="25"/>
       <c r="C76" s="27"/>
@@ -7105,7 +7099,7 @@
       <c r="I76" s="28"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77" s="28"/>
       <c r="B77" s="25"/>
       <c r="C77" s="27"/>
@@ -7117,7 +7111,7 @@
       <c r="I77" s="28"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78" s="28"/>
       <c r="B78" s="25"/>
       <c r="C78" s="27"/>
@@ -7129,7 +7123,7 @@
       <c r="I78" s="28"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79" s="28"/>
       <c r="B79" s="25"/>
       <c r="C79" s="27"/>
@@ -7141,7 +7135,7 @@
       <c r="I79" s="28"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80" s="28"/>
       <c r="B80" s="25"/>
       <c r="C80" s="27"/>
@@ -7153,7 +7147,7 @@
       <c r="I80" s="28"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" s="28"/>
       <c r="B81" s="25"/>
       <c r="C81" s="27"/>
@@ -7165,7 +7159,7 @@
       <c r="I81" s="28"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82" s="28"/>
       <c r="B82" s="25"/>
       <c r="C82" s="27"/>
@@ -7177,7 +7171,7 @@
       <c r="I82" s="28"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83" s="28"/>
       <c r="B83" s="25"/>
       <c r="C83" s="27"/>
@@ -7189,7 +7183,7 @@
       <c r="I83" s="28"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84" s="28"/>
       <c r="B84" s="25"/>
       <c r="C84" s="27"/>
@@ -7201,7 +7195,7 @@
       <c r="I84" s="28"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85" s="28"/>
       <c r="B85" s="25"/>
       <c r="C85" s="27"/>
@@ -7213,7 +7207,7 @@
       <c r="I85" s="28"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86" s="28"/>
       <c r="B86" s="25"/>
       <c r="C86" s="27"/>
@@ -7225,7 +7219,7 @@
       <c r="I86" s="28"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87" s="28"/>
       <c r="B87" s="25"/>
       <c r="C87" s="27"/>
@@ -7237,7 +7231,7 @@
       <c r="I87" s="28"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88" s="28"/>
       <c r="B88" s="25"/>
       <c r="C88" s="27"/>
@@ -7249,7 +7243,7 @@
       <c r="I88" s="28"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89" s="28"/>
       <c r="B89" s="25"/>
       <c r="C89" s="27"/>
@@ -7261,7 +7255,7 @@
       <c r="I89" s="28"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90" s="28"/>
       <c r="B90" s="25"/>
       <c r="C90" s="27"/>
@@ -7273,7 +7267,7 @@
       <c r="I90" s="28"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91" s="28"/>
       <c r="B91" s="25"/>
       <c r="C91" s="27"/>
@@ -7285,7 +7279,7 @@
       <c r="I91" s="28"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92" s="28"/>
       <c r="B92" s="25"/>
       <c r="C92" s="27"/>
@@ -7297,7 +7291,7 @@
       <c r="I92" s="28"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93" s="28"/>
       <c r="B93" s="25"/>
       <c r="C93" s="27"/>
@@ -7309,7 +7303,7 @@
       <c r="I93" s="28"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94" s="28"/>
       <c r="B94" s="25"/>
       <c r="C94" s="27"/>
@@ -7321,7 +7315,7 @@
       <c r="I94" s="28"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95" s="28"/>
       <c r="B95" s="25"/>
       <c r="C95" s="27"/>
@@ -7333,7 +7327,7 @@
       <c r="I95" s="28"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96" s="28"/>
       <c r="B96" s="25"/>
       <c r="C96" s="27"/>
@@ -7345,7 +7339,7 @@
       <c r="I96" s="28"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97" s="28"/>
       <c r="B97" s="25"/>
       <c r="C97" s="27"/>
@@ -7357,7 +7351,7 @@
       <c r="I97" s="28"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98" s="28"/>
       <c r="B98" s="25"/>
       <c r="C98" s="27"/>
@@ -7369,7 +7363,7 @@
       <c r="I98" s="28"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99" s="28"/>
       <c r="B99" s="25"/>
       <c r="C99" s="27"/>
@@ -7381,7 +7375,7 @@
       <c r="I99" s="28"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100" s="28"/>
       <c r="B100" s="25"/>
       <c r="C100" s="27"/>
@@ -7393,7 +7387,7 @@
       <c r="I100" s="28"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101" s="28"/>
       <c r="B101" s="25"/>
       <c r="C101" s="27"/>
@@ -7412,16 +7406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>104</v>
       </c>
@@ -7450,7 +7444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <f>MCT!A3</f>
         <v>45442</v>
@@ -7488,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <f>MCT!A4</f>
         <v>45443</v>
@@ -7526,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <f>MCT!A5</f>
         <v>45444</v>
@@ -7564,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <f>MCT!A6</f>
         <v>45445</v>
@@ -7602,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <f>MCT!A7</f>
         <v>45446</v>
@@ -7640,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <f>MCT!A8</f>
         <v>45447</v>
@@ -7678,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <f>MCT!A9</f>
         <v>45448</v>
@@ -7716,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <f>MCT!A10</f>
         <v>45449</v>
@@ -7754,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <f>MCT!A11</f>
         <v>45450</v>
@@ -7792,7 +7786,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <f>MCT!A12</f>
         <v>45451</v>
@@ -7830,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <f>MCT!A13</f>
         <v>45452</v>
@@ -7868,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <f>MCT!A14</f>
         <v>45453</v>
@@ -7906,7 +7900,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <f>MCT!A15</f>
         <v>45454</v>
@@ -7944,7 +7938,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <f>MCT!A16</f>
         <v>45455</v>
@@ -7982,7 +7976,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <f>MCT!A17</f>
         <v>45456</v>
@@ -8020,7 +8014,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <f>MCT!A18</f>
         <v>45457</v>
@@ -8058,7 +8052,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <f>MCT!A19</f>
         <v>45458</v>
@@ -8096,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <f>MCT!A20</f>
         <v>45459</v>
@@ -8134,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <f>MCT!A21</f>
         <v>45460</v>
@@ -8172,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <f>MCT!A22</f>
         <v>45461</v>
@@ -8210,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <f>MCT!A23</f>
         <v>45462</v>
@@ -8248,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <f>MCT!A24</f>
         <v>45463</v>
@@ -8286,7 +8280,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <f>MCT!A25</f>
         <v>45464</v>
@@ -8324,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <f>MCT!A26</f>
         <v>45465</v>
@@ -8362,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <f>MCT!A27</f>
         <v>45466</v>
@@ -8400,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="5">
         <f>MCT!A28</f>
         <v>45467</v>
@@ -8438,7 +8432,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="5">
         <f>MCT!A29</f>
         <v>45468</v>
@@ -8476,7 +8470,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
         <f>MCT!A30</f>
         <v>45469</v>
@@ -8514,7 +8508,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="5">
         <f>MCT!A31</f>
         <v>45470</v>
@@ -8552,7 +8546,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <f>MCT!A32</f>
         <v>45471</v>
@@ -8590,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="5">
         <f>MCT!A33</f>
         <v>45472</v>
@@ -8628,7 +8622,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="5">
         <f>MCT!A34</f>
         <v>45473</v>
@@ -8666,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="5">
         <f>MCT!A35</f>
         <v>45474</v>
@@ -8704,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="5">
         <f>MCT!A36</f>
         <v>45475</v>
@@ -8742,7 +8736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="5">
         <f>MCT!A37</f>
         <v>45476</v>
@@ -8780,7 +8774,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="5">
         <f>MCT!A38</f>
         <v>45477</v>
@@ -8818,7 +8812,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="5">
         <f>MCT!A39</f>
         <v>45478</v>
@@ -8856,7 +8850,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="5">
         <f>MCT!A40</f>
         <v>45479</v>
@@ -8894,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="5">
         <f>MCT!A41</f>
         <v>45480</v>
@@ -8932,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="5">
         <f>MCT!A42</f>
         <v>45481</v>
@@ -8970,7 +8964,7 @@
         <v>CIP</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="5">
         <f>MCT!A43</f>
         <v>45482</v>
@@ -9008,7 +9002,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="5">
         <f>MCT!A44</f>
         <v>45483</v>
@@ -9046,7 +9040,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="5">
         <f>MCT!A45</f>
         <v>45484</v>
@@ -9084,7 +9078,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="5">
         <f>MCT!A46</f>
         <v>45485</v>
@@ -9122,7 +9116,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="5">
         <f>MCT!A47</f>
         <v>45486</v>
@@ -9160,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="5">
         <f>MCT!A48</f>
         <v>45487</v>
@@ -9198,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="5">
         <f>MCT!A49</f>
         <v>45488</v>
@@ -9236,7 +9230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="5">
         <f>MCT!A50</f>
         <v>45489</v>
@@ -9274,7 +9268,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="5">
         <f>MCT!A51</f>
         <v>45490</v>
@@ -9312,7 +9306,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="5">
         <f>MCT!A52</f>
         <v>45491</v>
@@ -9350,7 +9344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="5">
         <f>MCT!A53</f>
         <v>45492</v>
@@ -9388,7 +9382,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="5">
         <f>MCT!A54</f>
         <v>45493</v>
@@ -9426,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="5">
         <f>MCT!A55</f>
         <v>45494</v>
@@ -9464,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="5">
         <f>MCT!A56</f>
         <v>45495</v>
@@ -9502,7 +9496,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="5">
         <f>MCT!A57</f>
         <v>45496</v>
@@ -9540,7 +9534,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="5">
         <f>MCT!A58</f>
         <v>45497</v>
@@ -9578,7 +9572,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="5">
         <f>MCT!A59</f>
         <v>45498</v>
@@ -9616,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="5">
         <f>MCT!A60</f>
         <v>45499</v>
@@ -9654,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="5">
         <f>MCT!A61</f>
         <v>45500</v>
@@ -9692,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="5">
         <f>MCT!A62</f>
         <v>45501</v>
@@ -9730,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="5">
         <f>MCT!A63</f>
         <v>45502</v>
@@ -9768,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="5">
         <f>MCT!A64</f>
         <v>45503</v>
@@ -9806,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="5">
         <f>MCT!A65</f>
         <v>45504</v>
@@ -9844,7 +9838,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="5">
         <f>MCT!A66</f>
         <v>45505</v>
@@ -9882,7 +9876,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="5">
         <f>MCT!A67</f>
         <v>45506</v>
@@ -9920,7 +9914,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="5">
         <f>MCT!A68</f>
         <v>45507</v>
@@ -9958,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="5">
         <f>MCT!A69</f>
         <v>45508</v>
@@ -9996,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="5">
         <f>MCT!A70</f>
         <v>45509</v>
@@ -10034,7 +10028,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="5">
         <f>MCT!A71</f>
         <v>45510</v>
@@ -10072,7 +10066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="5">
         <f>MCT!A72</f>
         <v>45511</v>
@@ -10110,7 +10104,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="5">
         <f>MCT!A73</f>
         <v>45512</v>
@@ -10148,7 +10142,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="5">
         <f>MCT!A74</f>
         <v>45513</v>
@@ -10186,7 +10180,7 @@
         <v>CIP</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="5">
         <f>MCT!A75</f>
         <v>45514</v>
@@ -10224,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="5">
         <f>MCT!A76</f>
         <v>45515</v>
@@ -10262,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="5">
         <f>MCT!A77</f>
         <v>45516</v>
@@ -10300,7 +10294,7 @@
         <v>CIP</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="5">
         <f>MCT!A78</f>
         <v>45517</v>
@@ -10338,7 +10332,7 @@
         <v>ARRET</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="5">
         <f>MCT!A79</f>
         <v>45518</v>
@@ -10376,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="5">
         <f>MCT!A80</f>
         <v>45519</v>
@@ -10414,7 +10408,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="5">
         <f>MCT!A81</f>
         <v>45520</v>
@@ -10452,7 +10446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="5">
         <f>MCT!A82</f>
         <v>45521</v>
@@ -10490,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="5">
         <f>MCT!A83</f>
         <v>45522</v>
@@ -10528,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="5">
         <f>MCT!A84</f>
         <v>45523</v>
@@ -10566,7 +10560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="5">
         <f>MCT!A85</f>
         <v>45524</v>
@@ -10604,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="5">
         <f>MCT!A86</f>
         <v>45525</v>
@@ -10642,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="5">
         <f>MCT!A87</f>
         <v>45526</v>
@@ -10680,7 +10674,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="5">
         <f>MCT!A88</f>
         <v>45527</v>
@@ -10718,7 +10712,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="5">
         <f>MCT!A89</f>
         <v>45528</v>
@@ -10756,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="5">
         <f>MCT!A90</f>
         <v>45529</v>
@@ -10794,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="5">
         <f>MCT!A91</f>
         <v>45530</v>
@@ -10832,7 +10826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="5">
         <f>MCT!A92</f>
         <v>45531</v>
@@ -10870,7 +10864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="5">
         <f>MCT!A93</f>
         <v>45532</v>
@@ -10908,7 +10902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="5">
         <f>MCT!A94</f>
         <v>45533</v>
@@ -10946,7 +10940,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="5">
         <f>MCT!A95</f>
         <v>45534</v>
@@ -10984,7 +10978,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="5">
         <f>MCT!A96</f>
         <v>45535</v>
@@ -11022,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="5">
         <f>MCT!A97</f>
         <v>45536</v>
@@ -11060,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="5">
         <f>MCT!A98</f>
         <v>45537</v>
@@ -11098,7 +11092,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="5">
         <f>MCT!A99</f>
         <v>45538</v>
@@ -11136,7 +11130,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="5">
         <f>MCT!A100</f>
         <v>45539</v>
@@ -11174,7 +11168,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="5">
         <f>MCT!A101</f>
         <v>45540</v>
@@ -11212,7 +11206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="5">
         <f>MCT!A102</f>
         <v>45541</v>
@@ -11250,7 +11244,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="5">
         <f>MCT!A103</f>
         <v>45542</v>
@@ -11288,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="5">
         <f>MCT!A104</f>
         <v>45543</v>
@@ -11326,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="5">
         <f>MCT!A105</f>
         <v>45544</v>
@@ -11364,7 +11358,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="5">
         <f>MCT!A106</f>
         <v>45545</v>
@@ -11402,7 +11396,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="5">
         <f>MCT!A107</f>
         <v>45546</v>
@@ -11440,7 +11434,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="5">
         <f>MCT!A108</f>
         <v>45547</v>
@@ -11478,7 +11472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="5">
         <f>MCT!A109</f>
         <v>45548</v>
@@ -11516,7 +11510,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="5">
         <f>MCT!A110</f>
         <v>45549</v>
@@ -11554,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="5">
         <f>MCT!A111</f>
         <v>45550</v>
@@ -11592,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="5">
         <f>MCT!A112</f>
         <v>45551</v>
@@ -11630,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" s="5">
         <f>MCT!A113</f>
         <v>45552</v>
@@ -11668,7 +11662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="5">
         <f>MCT!A114</f>
         <v>45553</v>
@@ -11706,7 +11700,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="5">
         <f>MCT!A115</f>
         <v>45554</v>
@@ -11744,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="5">
         <f>MCT!A116</f>
         <v>45555</v>
@@ -11782,7 +11776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="5">
         <f>MCT!A117</f>
         <v>45556</v>
@@ -11820,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="5">
         <f>MCT!A118</f>
         <v>45557</v>
@@ -11858,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="5">
         <f>MCT!A119</f>
         <v>45558</v>
@@ -11896,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="5">
         <f>MCT!A120</f>
         <v>45559</v>
@@ -11934,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="5">
         <f>MCT!A121</f>
         <v>45560</v>
@@ -11972,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="5">
         <f>MCT!A122</f>
         <v>45561</v>
@@ -12010,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="5">
         <f>MCT!A123</f>
         <v>45562</v>
@@ -12048,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="5">
         <f>MCT!A124</f>
         <v>45563</v>
@@ -12086,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="5">
         <f>MCT!A125</f>
         <v>45564</v>
@@ -12124,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="5">
         <f>MCT!A126</f>
         <v>45565</v>
@@ -12162,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="5"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
